--- a/data/trans_camb/P16_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-9,83</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-9,83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 1,63</t>
+          <t>-22,52; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 0,0</t>
+          <t>-22,52; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 0,0</t>
+          <t>-22,52; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -3,81</t>
+          <t>-22,52; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 5,72</t>
+          <t>-26,0; -6,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -1,63</t>
+          <t>-17,03; 6,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -2,17</t>
+          <t>-26,0; -6,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 1,35</t>
+          <t>-19,16; 4,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,27; -2,58</t>
+          <t>-19,21; -4,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-14,09; 1,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-19,21; -4,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-15,69; 0,8</t>
         </is>
       </c>
     </row>
@@ -738,7 +792,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-62,42%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,27 +812,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,0%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-84,73%</t>
+          <t>-36,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-89,13%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-50,96%</t>
+          <t>-49,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-90,85%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-53,41%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-65,59%</t>
         </is>
       </c>
     </row>
@@ -811,27 +880,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,51; 137,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>-84,98; 146,18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 38,45</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,37; 61,79</t>
+          <t>-100,0; 146,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -22,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-90,88; 103,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-94,91; 85,76</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 2,21</t>
+          <t>-11,85; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 9,12</t>
+          <t>-6,05; 14,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 14,61</t>
+          <t>-2,44; 23,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 8,66</t>
+          <t>-4,67; 46,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 13,14</t>
+          <t>-13,27; 7,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 9,83</t>
+          <t>-7,44; 16,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 4,86</t>
+          <t>-12,17; 11,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 8,78</t>
+          <t>-7,12; 18,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 9,18</t>
+          <t>-8,34; 4,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 13,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 13,33</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 30,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-46,03%</t>
+          <t>-57,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>129,59%</t>
+          <t>218,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>255,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>-26,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>69,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>67,91%</t>
+          <t>-37,57%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>72,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>76,96%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>136,79%</t>
         </is>
       </c>
     </row>
@@ -1012,42 +1141,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-87,0; 818,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 991,74</t>
+          <t>-49,25; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,87; 366,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 552,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,09; 451,96</t>
+          <t>-63,75; 493,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,69; 226,69</t>
+          <t>-100,0; 461,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 385,07</t>
+          <t>-73,83; 625,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 364,04</t>
+          <t>-87,13; 228,1</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-39,49; 620,6</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-36,41; 555,82</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-41,63; 1230,43</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 1,81</t>
+          <t>-9,14; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 1,59</t>
+          <t>-9,92; 8,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 8,86</t>
+          <t>-5,58; 15,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 2,54</t>
+          <t>-1,42; 22,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 8,88</t>
+          <t>-11,28; 5,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 13,98</t>
+          <t>-8,66; 8,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 0,39</t>
+          <t>-5,06; 14,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 3,38</t>
+          <t>-5,51; 13,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 8,84</t>
+          <t>-9,01; 3,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; 5,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 12,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 14,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-47,23%</t>
+          <t>-3,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-53,56%</t>
+          <t>-14,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-35,66%</t>
+          <t>139,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>-29,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-40,64%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>-22,32%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61,9%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,84; 53,1</t>
+          <t>-84,17; 323,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,69; 67,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,13; 189,35</t>
+          <t>-67,14; 589,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,53; 32,94</t>
+          <t>-37,54; 830,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,36; 120,25</t>
+          <t>-72,92; 82,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 176,85</t>
+          <t>-53,72; 131,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,29; 10,99</t>
+          <t>-33,29; 203,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 47,59</t>
+          <t>-33,95; 188,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 115,16</t>
+          <t>-65,18; 69,58</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-54,47; 81,81</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-18,73; 207,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; 212,54</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>14,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,16</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>14,96</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>18,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 5,08</t>
+          <t>-5,12; 7,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 11,54</t>
+          <t>-3,95; 9,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 11,2</t>
+          <t>-0,75; 15,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 6,21</t>
+          <t>5,55; 23,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 16,69</t>
+          <t>-7,96; 12,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 21,38</t>
+          <t>-1,14; 20,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,82</t>
+          <t>2,95; 26,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 11,41</t>
+          <t>6,47; 30,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 13,62</t>
+          <t>-5,3; 7,29</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 13,08</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 18,03</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 24,48</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,13%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>49,08%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>182,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,99%</t>
+          <t>374,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,89%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>114,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>62,52%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>105,55%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>155,43%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,88; 126,66</t>
+          <t>-81,35; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 246,82</t>
+          <t>-74,81; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 242,56</t>
+          <t>-42,38; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 45,31</t>
+          <t>40,33; 1916,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 125,47</t>
+          <t>-38,91; 113,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,43; 156,48</t>
+          <t>-7,54; 190,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 37,88</t>
+          <t>11,31; 241,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 107,18</t>
+          <t>26,48; 273,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,97; 127,26</t>
+          <t>-39,07; 95,4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 176,25</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>26,59; 265,93</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>57,39; 345,09</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>15,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>23,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>23,79</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>10,88</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8,59</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12,8</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 22,62</t>
+          <t>2,41; 35,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 21,12</t>
+          <t>-3,01; 30,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 22,29</t>
+          <t>1,66; 33,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 12,87</t>
+          <t>6,71; 38,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 19,77</t>
+          <t>-12,89; 20,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 21,63</t>
+          <t>-8,65; 22,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 15,18</t>
+          <t>-7,52; 25,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 16,4</t>
+          <t>5,11; 39,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 17,96</t>
+          <t>1,41; 25,54</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 21,41</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 25,17</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>12,62; 34,83</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>118,39%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>56,99%</t>
+          <t>75,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>112,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>165,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>123,78%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>66,43%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>52,46%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>78,17%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>145,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 247,69</t>
+          <t>3,52; 390,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 218,2</t>
+          <t>-24,63; 320,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 235,43</t>
+          <t>2,29; 368,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 68,66</t>
+          <t>26,7; 444,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 97,21</t>
+          <t>-50,74; 180,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 104,69</t>
+          <t>-33,79; 209,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 96,26</t>
+          <t>-30,19; 244,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 98,59</t>
+          <t>13,32; 341,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,57; 113,44</t>
+          <t>6,3; 223,41</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 171,83</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9,73; 212,51</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>61,01; 311,23</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>14,43</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>26,74</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,48</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>9,2</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6,02</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>20,7</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 15,28</t>
+          <t>-5,6; 25,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 17,47</t>
+          <t>-3,5; 26,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 21,51</t>
+          <t>-1,87; 30,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 11,75</t>
+          <t>8,75; 44,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 11,57</t>
+          <t>-11,3; 32,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 37,45</t>
+          <t>-18,77; 22,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 9,92</t>
+          <t>-24,31; 19,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 10,5</t>
+          <t>-9,46; 39,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 31,61</t>
+          <t>-3,82; 22,83</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; 20,05</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; 18,41</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 35,93</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>100,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>123,9%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>158,57%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>293,82%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-9,42%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>-11,47%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>39,28%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>25,69%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>88,36%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 141,71</t>
+          <t>-49,4; 829,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 172,68</t>
+          <t>-31,33; 975,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 207,58</t>
+          <t>-27,33; 959,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 37,78</t>
+          <t>36,8; 1547,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 36,12</t>
+          <t>-26,1; 134,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 119,21</t>
+          <t>-41,38; 91,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 42,35</t>
+          <t>-54,07; 94,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 42,69</t>
+          <t>-23,57; 164,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 133,17</t>
+          <t>-15,72; 139,78</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-26,84; 119,19</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-29,21; 116,55</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>11,59; 209,97</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>11,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,46</t>
+          <t>-1,19; 8,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 4,36</t>
+          <t>-1,24; 8,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,19</t>
+          <t>2,32; 12,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 0,91</t>
+          <t>6,67; 21,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,01</t>
+          <t>-6,36; 4,93</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,13</t>
+          <t>-2,43; 8,57</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,48</t>
+          <t>-2,58; 8,15</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,67</t>
+          <t>5,41; 19,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,72</t>
+          <t>-2,79; 4,82</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 6,74</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 8,43</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 16,83</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>178,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>38,6%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>99,13%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 46,37</t>
+          <t>-14,75; 162,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 56,53</t>
+          <t>-15,67; 154,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 79,66</t>
+          <t>20,8; 226,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 6,36</t>
+          <t>67,59; 404,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 43,85</t>
+          <t>-33,8; 36,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>4,6; 81,86</t>
+          <t>-13,06; 65,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 12,53</t>
+          <t>-13,72; 65,25</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 38,8</t>
+          <t>27,21; 142,62</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>7,45; 68,67</t>
+          <t>-20,16; 45,87</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 65,74</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 82,62</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>52,61; 160,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
